--- a/intervention/physics_auto.xlsx
+++ b/intervention/physics_auto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,71 +462,71 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>V931325309014</t>
+          <t>Z931412020040</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>W931101109061</t>
+          <t>V931325309014</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>C673336808019</t>
+          <t>C931412020042</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>L931100509013</t>
+          <t>W931101109061</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>U931383908031</t>
+          <t>C673336808019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Q931321008053</t>
+          <t>L931100509013</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>X931325208068</t>
+          <t>X931412020027</t>
         </is>
       </c>
     </row>
@@ -542,11 +542,91 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>C931412020042</t>
+          <t>X931325208068</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>U931383908031</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Q931321008053</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Q931101109046</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>R928218115049</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>L931412020028</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Q879418719002</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>N931383610018</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>M931252916068</t>
         </is>
       </c>
     </row>
